--- a/src/phd/DataSets/01.Movielens_100k_old/results/results.xlsx
+++ b/src/phd/DataSets/01.Movielens_100k_old/results/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11955" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="28860" windowHeight="6675" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="All_Data" sheetId="1" r:id="rId1"/>
@@ -8866,7 +8866,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8874,7 +8874,8 @@
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -8966,7 +8967,7 @@
         <v>0.62234042553191404</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>145</v>
       </c>
@@ -9140,7 +9141,7 @@
         <v>0.80769230769230704</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>151</v>
       </c>
@@ -9314,7 +9315,7 @@
         <v>1.1042253521126699</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>157</v>
       </c>
@@ -9430,7 +9431,7 @@
         <v>0.50198412698412698</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>161</v>
       </c>
@@ -9459,7 +9460,7 @@
         <v>1.2481283422459799</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>162</v>
       </c>
@@ -9488,7 +9489,7 @@
         <v>1.36484490398818</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>163</v>
       </c>
@@ -9954,19 +9955,23 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I37">
-    <filterColumn colId="3">
+    <filterColumn colId="1">
       <filters>
-        <filter val="0,528101803"/>
-        <filter val="0,832449629"/>
-        <filter val="0,996818664"/>
+        <filter val="0"/>
+        <filter val="0,2"/>
+        <filter val="0,4"/>
+        <filter val="0,6"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="5">
+    <filterColumn colId="2">
       <filters>
-        <filter val="0,694591729"/>
-        <filter val="0,991516437"/>
+        <filter val="0"/>
+        <filter val="-0,2"/>
+        <filter val="-0,4"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="3"/>
+    <filterColumn colId="5"/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
